--- a/medicine/Mort/L'Oracle_(film)/L'Oracle_(film).xlsx
+++ b/medicine/Mort/L'Oracle_(film)/L'Oracle_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Oracle_(film)</t>
+          <t>L'Oracle_(film)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Oracle (Der Medicus ou The Physician) est un film d'aventure allemand de Philipp Stölzl sorti en 2013. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Oracle_(film)</t>
+          <t>L'Oracle_(film)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Londres, début du XIe siècle. Le jeune Rob Cole découvre à la disparition de sa mère qu’il possède un don particulier lui permettant de ressentir par le toucher l’imminence de la mort. Seul et sans ressource, c’est auprès d’un barbier ambulant qu’il découvre l’art de guérir. Se jurant de devenir médecin et de vaincre la mort elle-même, il décide de se rendre en Perse afin d’étudier auprès du « prince des savants », Avicenne.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Oracle_(film)</t>
+          <t>L'Oracle_(film)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Der Medicus
 Titre anglais : The Physician
@@ -578,7 +594,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27Oracle_(film)</t>
+          <t>L'Oracle_(film)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,7 +612,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tom Payne (VF : Adrien Solis) : Rob Cole
 Stellan Skarsgård (VFB : Martin Spinhayer) : Barber
@@ -611,7 +629,7 @@
 Martin Hancock : Merlin
 Lais Benjamin Campos (VFB : Julie Basecqz) : Anne Cole à 4 ans
 Sahin Eryilmaz (VFB : Alain Eloy) : Hakim
- Source et légende : version française (VF) sur RS Doublage[1] et selon le carton du doublage français sur le DVD zone 2[2].</t>
+ Source et légende : version française (VF) sur RS Doublage et selon le carton du doublage français sur le DVD zone 2.</t>
         </is>
       </c>
     </row>
